--- a/data/categories.xlsx
+++ b/data/categories.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bills\backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B31166-EFB8-40AC-A9B9-BE5D38E25005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -119,13 +125,25 @@
   </si>
   <si>
     <t>Microwave Ovens</t>
+  </si>
+  <si>
+    <t>hsn_code</t>
+  </si>
+  <si>
+    <t>cgst_rate</t>
+  </si>
+  <si>
+    <t>sgst_rate</t>
+  </si>
+  <si>
+    <t>igst_rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,10 +195,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -188,13 +215,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +267,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -266,6 +301,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -300,9 +336,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,14 +512,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,8 +548,20 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -515,8 +577,20 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="3">
+        <v>8517</v>
+      </c>
+      <c r="G2" s="4">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -532,8 +606,20 @@
       <c r="E3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="3">
+        <v>6109</v>
+      </c>
+      <c r="G3" s="4">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -549,8 +635,20 @@
       <c r="E4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="3">
+        <v>9403</v>
+      </c>
+      <c r="G4" s="4">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -566,8 +664,20 @@
       <c r="E5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="3">
+        <v>1006</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -583,8 +693,20 @@
       <c r="E6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="3">
+        <v>4901</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -600,8 +722,20 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="3">
+        <v>9506</v>
+      </c>
+      <c r="G7" s="4">
+        <v>6</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -617,8 +751,20 @@
       <c r="E8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="3">
+        <v>8703</v>
+      </c>
+      <c r="G8" s="4">
+        <v>9</v>
+      </c>
+      <c r="H8" s="4">
+        <v>9</v>
+      </c>
+      <c r="I8" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -634,8 +780,20 @@
       <c r="E9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="3">
+        <v>3304</v>
+      </c>
+      <c r="G9" s="4">
+        <v>9</v>
+      </c>
+      <c r="H9" s="4">
+        <v>9</v>
+      </c>
+      <c r="I9" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -651,8 +809,20 @@
       <c r="E10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="3">
+        <v>9503</v>
+      </c>
+      <c r="G10" s="4">
+        <v>9</v>
+      </c>
+      <c r="H10" s="4">
+        <v>9</v>
+      </c>
+      <c r="I10" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -668,8 +838,21 @@
       <c r="E11" t="s">
         <v>34</v>
       </c>
+      <c r="F11" s="3">
+        <v>8509</v>
+      </c>
+      <c r="G11" s="4">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4">
+        <v>9</v>
+      </c>
+      <c r="I11" s="4">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>